--- a/files/results/results-set-1.xlsx
+++ b/files/results/results-set-1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Documents\TUDarmstadt\Masterarbeit\chess-annotation\files\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B426F0-8E02-47F0-B47C-13E77ACFFA04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="position-1" sheetId="4" r:id="rId4"/>
     <sheet name="position-2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -71,12 +77,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +137,6081 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69625000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC3E-45AB-AB54-7AFFA4F2E022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77275000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC3E-45AB-AB54-7AFFA4F2E022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73675000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66299999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC3E-45AB-AB54-7AFFA4F2E022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>total!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>total!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72575000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62649999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AC3E-45AB-AB54-7AFFA4F2E022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355173368"/>
+        <c:axId val="355175928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355173368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355175928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355175928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355173368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63549999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-842A-4A12-B6EB-42374E552BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-842A-4A12-B6EB-42374E552BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45549999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-842A-4A12-B6EB-42374E552BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-1'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73049999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73349999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-842A-4A12-B6EB-42374E552BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="472420280"/>
+        <c:axId val="472421240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472420280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472421240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472421240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472420280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54899999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53299999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE4D-4614-9DED-AEB9E2F8F9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52950000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52849999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE4D-4614-9DED-AEB9E2F8F9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE4D-4614-9DED-AEB9E2F8F9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'move-2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'move-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'move-2'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE4D-4614-9DED-AEB9E2F8F9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="488615800"/>
+        <c:axId val="488616120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488615800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488616120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488616120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.42000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488615800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A64-4ECD-9F20-BFFC139B0F3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A64-4ECD-9F20-BFFC139B0F3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54449999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A64-4ECD-9F20-BFFC139B0F3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-1'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-1'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A64-4ECD-9F20-BFFC139B0F3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="488623800"/>
+        <c:axId val="473980720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488623800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473980720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473980720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.58000000000000007"/>
+          <c:min val="0.53"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488623800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34250000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A185-4D6E-AA84-A98E3555261E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34049999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A185-4D6E-AA84-A98E3555261E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-own</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A185-4D6E-AA84-A98E3555261E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'position-2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w2v-pretrained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'position-2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MCC0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCC3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCC3P</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NDC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'position-2'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28649999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A185-4D6E-AA84-A98E3555261E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="307686320"/>
+        <c:axId val="472424120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="307686320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472424120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472424120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.26"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307686320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EB3269-40B6-46BA-9515-65129EB73324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBBB817-0C50-4012-B47D-7F456C5CA988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA15730-C67A-4491-8B9E-91DEA1DC7E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB8E5A0-0E82-4C26-B742-300F1DDDD735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C8E7E9-255A-4E68-8550-9D67230A02CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,9 +6249,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +6283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +6335,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,14 +6528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -484,7 +6594,7 @@
         <v>0.45150000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -517,7 +6627,7 @@
         <v>0.43599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -550,7 +6660,7 @@
         <v>0.25299999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -566,18 +6676,19 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -603,7 +6714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -636,7 +6747,7 @@
         <v>0.21198830409356698</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -669,7 +6780,7 @@
         <v>0.22076023391812838</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -702,7 +6813,7 @@
         <v>9.2105263157894662E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -717,13 +6828,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -733,7 +6844,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -743,7 +6854,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -753,13 +6864,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -770,18 +6881,19 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -807,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -840,7 +6952,7 @@
         <v>9.9640933572710949E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -873,7 +6985,7 @@
         <v>8.9766606822262104E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -906,7 +7018,7 @@
         <v>7.6301615798922778E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -939,7 +7051,7 @@
         <v>0.10053859964093358</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -972,7 +7084,7 @@
         <v>9.515260323159784E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +7117,7 @@
         <v>8.3482944344703852E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +7150,7 @@
         <v>8.7971274685816961E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +7183,7 @@
         <v>-0.35816876122082586</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +7198,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f t="shared" ref="G10:J11" si="1">(D10-$B$12)/(1-$B$12)</f>
+        <f t="shared" ref="I10:J11" si="1">(D10-$B$12)/(1-$B$12)</f>
         <v>-6.1938958707360825E-2</v>
       </c>
       <c r="J10" s="1">
@@ -1094,7 +7206,7 @@
         <v>6.4631956912028693E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +7229,7 @@
         <v>9.7845601436265708E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1133,18 +7245,19 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +7316,7 @@
         <v>2.134831460674147E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +7349,7 @@
         <v>1.1235955056179787E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +7382,7 @@
         <v>1.57303370786517E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +7415,7 @@
         <v>2.134831460674147E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +7448,7 @@
         <v>1.4606741573033597E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +7481,7 @@
         <v>1.4606741573033597E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +7514,7 @@
         <v>2.0224719101123365E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +7547,7 @@
         <v>-0.5550561797752811</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +7562,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f t="shared" ref="H10:J11" si="1">(D10-$B$12)/(1-$B$12)</f>
+        <f t="shared" ref="I10:J11" si="1">(D10-$B$12)/(1-$B$12)</f>
         <v>-5.617977528089893E-2</v>
       </c>
       <c r="J10" s="1">
@@ -1457,7 +7570,7 @@
         <v>-2.0224719101123615E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +7593,7 @@
         <v>2.471910112359528E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1496,18 +7609,19 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +7647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1566,7 +7680,7 @@
         <v>8.42733908427339E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +7697,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="1">(B3-$B$12)/(1-$B$12)</f>
+        <f t="shared" ref="G3:G9" si="1">(B3-$B$12)/(1-$B$12)</f>
         <v>0.14598540145985398</v>
       </c>
       <c r="H3" s="1">
@@ -1599,7 +7713,7 @@
         <v>0.10418049104180492</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +7746,7 @@
         <v>0.11877903118779033</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +7779,7 @@
         <v>6.8347710683477086E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +7812,7 @@
         <v>9.2236230922362314E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +7845,7 @@
         <v>9.8208360982083548E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +7878,7 @@
         <v>5.3085600530855974E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +7911,7 @@
         <v>-7.1001990710019891E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +7934,7 @@
         <v>4.5122760451227643E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +7957,7 @@
         <v>0.11015262110152622</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1859,5 +7973,6 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/results/results-set-1.xlsx
+++ b/files/results/results-set-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Documents\TUDarmstadt\Masterarbeit\chess-annotation\files\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B426F0-8E02-47F0-B47C-13E77ACFFA04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959BE37C-B614-43F5-90F9-FBACAF0D3B13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
     <sheet name="position-2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,12 +40,6 @@
   </si>
   <si>
     <t>tfidf</t>
-  </si>
-  <si>
-    <t>w2v-pretrained</t>
-  </si>
-  <si>
-    <t>w2v-own</t>
   </si>
   <si>
     <t>MCC3</t>
@@ -72,6 +73,12 @@
   </si>
   <si>
     <t>MCC3P</t>
+  </si>
+  <si>
+    <t>w2v-C</t>
+  </si>
+  <si>
+    <t>w2v-GN</t>
   </si>
 </sst>
 </file>
@@ -339,7 +346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-own</c:v>
+                  <c:v>w2v-C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -420,7 +427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-pretrained</c:v>
+                  <c:v>w2v-GN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -891,7 +898,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-own</c:v>
+                  <c:v>w2v-C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -972,7 +979,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-pretrained</c:v>
+                  <c:v>w2v-GN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1492,7 +1499,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-own</c:v>
+                  <c:v>w2v-C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,7 +1604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-pretrained</c:v>
+                  <c:v>w2v-GN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2140,7 +2147,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-own</c:v>
+                  <c:v>w2v-C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2245,7 +2252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-pretrained</c:v>
+                  <c:v>w2v-GN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2789,7 +2796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-own</c:v>
+                  <c:v>w2v-C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2894,7 +2901,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w2v-pretrained</c:v>
+                  <c:v>w2v-GN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6013,10 +6020,10 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>172250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6054,10 +6061,10 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>122775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6095,10 +6102,10 @@
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6136,10 +6143,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6172,15 +6179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
+      <xdr:colOff>225424</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243424</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6531,7 +6538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6543,10 +6552,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -6555,15 +6564,15 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>0.77849999999999997</v>
@@ -6596,7 +6605,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>0.78249999999999997</v>
@@ -6629,7 +6638,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0.69625000000000004</v>
@@ -6662,7 +6671,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>0.5</v>
@@ -6684,7 +6693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6696,10 +6707,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -6708,15 +6719,15 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>0.76900000000000002</v>
@@ -6749,7 +6760,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0.75900000000000001</v>
@@ -6782,7 +6793,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>0.63549999999999995</v>
@@ -6815,7 +6826,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>0.65800000000000003</v>
@@ -6889,7 +6900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6901,10 +6914,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -6913,15 +6926,15 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>0.54899999999999993</v>
@@ -6954,7 +6967,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0.54200000000000004</v>
@@ -6987,7 +7000,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.54249999999999998</v>
@@ -7020,7 +7033,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.54749999999999999</v>
@@ -7053,7 +7066,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.54449999999999998</v>
@@ -7086,7 +7099,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.54349999999999998</v>
@@ -7119,7 +7132,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.53299999999999992</v>
@@ -7152,7 +7165,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.40250000000000002</v>
@@ -7208,7 +7221,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7231,7 +7244,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>0.443</v>
@@ -7253,7 +7266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -7265,10 +7280,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -7277,15 +7292,15 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>0.56700000000000006</v>
@@ -7318,7 +7333,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0.56200000000000006</v>
@@ -7351,7 +7366,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.56799999999999995</v>
@@ -7384,7 +7399,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.55700000000000005</v>
@@ -7417,7 +7432,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.5595</v>
@@ -7450,7 +7465,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.5595</v>
@@ -7483,7 +7498,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.56000000000000005</v>
@@ -7516,7 +7531,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.41</v>
@@ -7572,7 +7587,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7595,7 +7610,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>0.55500000000000005</v>
@@ -7617,7 +7632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -7629,10 +7644,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -7641,15 +7656,15 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>0.35200000000000004</v>
@@ -7682,7 +7697,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0.35649999999999998</v>
@@ -7715,7 +7730,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.36200000000000004</v>
@@ -7748,7 +7763,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.33649999999999997</v>
@@ -7781,7 +7796,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.36200000000000004</v>
@@ -7814,7 +7829,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.35450000000000004</v>
@@ -7847,7 +7862,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.34250000000000003</v>
@@ -7880,7 +7895,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.2525</v>
@@ -7936,7 +7951,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7959,7 +7974,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>0.2465</v>
